--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0370360702193368</v>
+        <v>-0.02907897629796788</v>
       </c>
       <c r="C2">
-        <v>0.2877205798324301</v>
+        <v>0.3131278957257717</v>
       </c>
       <c r="D2">
-        <v>0.135345957066826</v>
+        <v>0.181524606355785</v>
       </c>
       <c r="E2">
-        <v>0.3678939481247633</v>
+        <v>0.4260570458938391</v>
       </c>
       <c r="F2">
-        <v>0.3798420736582994</v>
+        <v>0.43998257208981</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01989109342689383</v>
+        <v>0.0370360702193368</v>
       </c>
       <c r="C3">
-        <v>0.3298745939743749</v>
+        <v>0.2877205798324301</v>
       </c>
       <c r="D3">
-        <v>0.1503185731831121</v>
+        <v>0.135345957066826</v>
       </c>
       <c r="E3">
-        <v>0.3877093926939507</v>
+        <v>0.3678939481247633</v>
       </c>
       <c r="F3">
-        <v>0.4030092977225764</v>
+        <v>0.3798420736582994</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06273519545459039</v>
+        <v>0.01989109342689383</v>
       </c>
       <c r="C4">
-        <v>0.2460334154802962</v>
+        <v>0.3298745939743749</v>
       </c>
       <c r="D4">
-        <v>0.09558537405740077</v>
+        <v>0.1503185731831121</v>
       </c>
       <c r="E4">
-        <v>0.3091688439306276</v>
+        <v>0.3877093926939507</v>
       </c>
       <c r="F4">
-        <v>0.3161984462764572</v>
+        <v>0.4030092977225764</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02711121047383215</v>
+        <v>0.06273519545459039</v>
       </c>
       <c r="C5">
-        <v>0.2779584568479502</v>
+        <v>0.2460334154802962</v>
       </c>
       <c r="D5">
-        <v>0.1216586105046287</v>
+        <v>0.09558537405740077</v>
       </c>
       <c r="E5">
-        <v>0.34879594393374</v>
+        <v>0.3091688439306276</v>
       </c>
       <c r="F5">
-        <v>0.3647135205176791</v>
+        <v>0.3161984462764572</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01088135635153479</v>
+        <v>0.02711121047383215</v>
       </c>
       <c r="C6">
-        <v>0.2849421119723689</v>
+        <v>0.2779584568479502</v>
       </c>
       <c r="D6">
-        <v>0.09825224066429059</v>
+        <v>0.1216586105046287</v>
       </c>
       <c r="E6">
-        <v>0.3134521345664926</v>
+        <v>0.34879594393374</v>
       </c>
       <c r="F6">
-        <v>0.3302084135617004</v>
+        <v>0.3647135205176791</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04428645741563344</v>
+        <v>-0.01088135635153479</v>
       </c>
       <c r="C7">
-        <v>0.3765628100937468</v>
+        <v>0.2849421119723689</v>
       </c>
       <c r="D7">
-        <v>0.1690784592812682</v>
+        <v>0.09825224066429059</v>
       </c>
       <c r="E7">
-        <v>0.4111915116843588</v>
+        <v>0.3134521345664926</v>
       </c>
       <c r="F7">
-        <v>0.4335975266214011</v>
+        <v>0.3302084135617004</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01393931246739222</v>
+        <v>-0.04428645741563344</v>
       </c>
       <c r="C8">
-        <v>0.3509192590318558</v>
+        <v>0.3765628100937468</v>
       </c>
       <c r="D8">
-        <v>0.1607817096315818</v>
+        <v>0.1690784592812682</v>
       </c>
       <c r="E8">
-        <v>0.4009759464501354</v>
+        <v>0.4111915116843588</v>
       </c>
       <c r="F8">
-        <v>0.4284022211487281</v>
+        <v>0.4335975266214011</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03688841855209302</v>
+        <v>-0.01393931246739222</v>
       </c>
       <c r="C9">
-        <v>0.2799590153621541</v>
+        <v>0.3509192590318558</v>
       </c>
       <c r="D9">
-        <v>0.1329006694222477</v>
+        <v>0.1607817096315818</v>
       </c>
       <c r="E9">
-        <v>0.3645554408073589</v>
+        <v>0.4009759464501354</v>
       </c>
       <c r="F9">
-        <v>0.3917438359423185</v>
+        <v>0.4284022211487281</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06364682135181432</v>
+        <v>-0.03688841855209302</v>
       </c>
       <c r="C10">
-        <v>0.1670219060428917</v>
+        <v>0.2799590153621541</v>
       </c>
       <c r="D10">
-        <v>0.03807752624502202</v>
+        <v>0.1329006694222477</v>
       </c>
       <c r="E10">
-        <v>0.1951346362002964</v>
+        <v>0.3645554408073589</v>
       </c>
       <c r="F10">
-        <v>0.2020691219662191</v>
+        <v>0.3917438359423185</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06098076515723314</v>
+        <v>-0.06364682135181432</v>
       </c>
       <c r="C11">
-        <v>0.3262970042453318</v>
+        <v>0.1670219060428917</v>
       </c>
       <c r="D11">
-        <v>0.145288924028067</v>
+        <v>0.03807752624502202</v>
       </c>
       <c r="E11">
-        <v>0.3811678423320454</v>
+        <v>0.1951346362002964</v>
       </c>
       <c r="F11">
-        <v>0.4206695114768026</v>
+        <v>0.2020691219662191</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_1_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01393931246739222</v>
+        <v>0.0315757522548537</v>
       </c>
       <c r="C9">
-        <v>0.3509192590318558</v>
+        <v>0.3042284657534167</v>
       </c>
       <c r="D9">
-        <v>0.1607817096315818</v>
+        <v>0.1264694874506458</v>
       </c>
       <c r="E9">
-        <v>0.4009759464501354</v>
+        <v>0.3556254876279901</v>
       </c>
       <c r="F9">
-        <v>0.4284022211487281</v>
+        <v>0.388029575141152</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03688841855209302</v>
+        <v>0.1190308503644765</v>
       </c>
       <c r="C10">
-        <v>0.2799590153621541</v>
+        <v>0.1190308503644765</v>
       </c>
       <c r="D10">
-        <v>0.1329006694222477</v>
+        <v>0.02079770754726164</v>
       </c>
       <c r="E10">
-        <v>0.3645554408073589</v>
+        <v>0.144214103149663</v>
       </c>
       <c r="F10">
-        <v>0.3917438359423185</v>
+        <v>0.09971983911517755</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06364682135181432</v>
+        <v>-0.04243697084963852</v>
       </c>
       <c r="C11">
-        <v>0.1670219060428917</v>
+        <v>0.04243697084963852</v>
       </c>
       <c r="D11">
-        <v>0.03807752624502202</v>
+        <v>0.001800896494893069</v>
       </c>
       <c r="E11">
-        <v>0.1951346362002964</v>
-      </c>
-      <c r="F11">
-        <v>0.2020691219662191</v>
+        <v>0.04243697084963852</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
